--- a/ITProjectManagement/QA/TestData.xlsx
+++ b/ITProjectManagement/QA/TestData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anodiam\Docs\ITProjectExecution\QA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anodiam\Docs\ITProjectManagement\QA\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="36">
   <si>
     <t>Anodiam</t>
   </si>
@@ -123,13 +123,19 @@
   </si>
   <si>
     <t>0405 706206</t>
+  </si>
+  <si>
+    <t>GCP Trial Access</t>
+  </si>
+  <si>
+    <t>04/Mar/2021 to May</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -140,28 +146,33 @@
       <sz val="48"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="24"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -186,6 +197,13 @@
       <u/>
       <sz val="10"/>
       <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -226,7 +244,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -247,6 +265,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -258,9 +279,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -496,29 +515,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="60" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
     </row>
     <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
     </row>
     <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="11"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
+      <c r="A3" s="14"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
     </row>
     <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -608,250 +627,261 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="16" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1" s="16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="15">
+      <c r="H2" s="10">
         <v>27718</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="I2" s="8" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J2" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="7">
         <v>2</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="15">
+      <c r="H3" s="10">
         <v>27718</v>
       </c>
-      <c r="I3" s="13" t="s">
+      <c r="I3" s="8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="G4" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="15">
+      <c r="H4" s="10">
         <v>27718</v>
       </c>
-      <c r="I4" s="13" t="s">
+      <c r="I4" s="8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="7">
         <v>4</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="G5" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="15">
+      <c r="H5" s="10">
         <v>27719</v>
       </c>
-      <c r="I5" s="13" t="s">
+      <c r="I5" s="8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="7">
         <v>5</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="G6" s="13" t="s">
+      <c r="G6" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="H6" s="15">
+      <c r="H6" s="10">
         <v>27720</v>
       </c>
-      <c r="I6" s="13" t="s">
+      <c r="I6" s="8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="7">
         <v>6</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="F7" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="G7" s="13" t="s">
+      <c r="G7" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="15">
+      <c r="H7" s="10">
         <v>27721</v>
       </c>
-      <c r="I7" s="13" t="s">
+      <c r="I7" s="8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="7">
         <v>7</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="F8" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="G8" s="13" t="s">
+      <c r="G8" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="H8" s="15">
+      <c r="H8" s="10">
         <v>27722</v>
       </c>
-      <c r="I8" s="13" t="s">
+      <c r="I8" s="8" t="s">
         <v>27</v>
       </c>
     </row>
